--- a/db/dummydata/new_gc_trucking_gothenburg_port_ftl.xlsx
+++ b/db/dummydata/new_gc_trucking_gothenburg_port_ftl.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">161-200</t>
   </si>
   <si>
-    <t xml:space="preserve">200-3000</t>
+    <t xml:space="preserve">201-3000</t>
   </si>
   <si>
     <t xml:space="preserve">FEE</t>
@@ -460,24 +460,24 @@
   <dimension ref="A1:AR1000"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="28" min="19" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="28" min="19" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -838,15 +838,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="25" min="16" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="25" min="16" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2179,10 +2179,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2535,15 +2535,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="25" min="16" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="25" min="16" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3860,15 +3860,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="25" min="16" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="25" min="16" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5185,15 +5185,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="25" min="16" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="25" min="16" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6526,15 +6526,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="25" min="16" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="25" min="16" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7867,15 +7867,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="25" min="16" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="25" min="16" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9208,15 +9208,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="25" min="16" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="25" min="16" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10549,15 +10549,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="25" min="16" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="25" min="16" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/db/dummydata/new_gc_trucking_gothenburg_port_ftl.xlsx
+++ b/db/dummydata/new_gc_trucking_gothenburg_port_ftl.xlsx
@@ -6,13 +6,13 @@
     <sheet state="visible" name="Zones" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="Fees" sheetId="2" r:id="rId4"/>
     <sheet state="visible" name="1" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="5" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="2" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="6" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="3" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="7" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="4" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="8" sheetId="10" r:id="rId12"/>
+    <sheet state="visible" name="4" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="8" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="5" sheetId="6" r:id="rId8"/>
+    <sheet state="visible" name="2" sheetId="7" r:id="rId9"/>
+    <sheet state="visible" name="6" sheetId="8" r:id="rId10"/>
+    <sheet state="visible" name="3" sheetId="9" r:id="rId11"/>
+    <sheet state="visible" name="7" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -20,24 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="60">
+  <si>
+    <t>City</t>
+  </si>
   <si>
     <t>ZONE</t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
     <t>FEE</t>
-  </si>
-  <si>
-    <t>DISTANCE</t>
-  </si>
-  <si>
-    <t>RANGE</t>
-  </si>
-  <si>
-    <t>COUNTRY_CODE</t>
   </si>
   <si>
     <t>Currency</t>
@@ -73,13 +64,22 @@
     <t>KG</t>
   </si>
   <si>
+    <t>DISTANCE</t>
+  </si>
+  <si>
     <t>ITEM</t>
+  </si>
+  <si>
+    <t>RANGE</t>
   </si>
   <si>
     <t>SHIPMENT</t>
   </si>
   <si>
     <t>BILL</t>
+  </si>
+  <si>
+    <t>COUNTRY_CODE</t>
   </si>
   <si>
     <t>CONTAINER</t>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>rate_basis</t>
-  </si>
-  <si>
-    <t>Freeways Charge</t>
   </si>
   <si>
     <t>Base</t>
@@ -118,6 +115,21 @@
     <t>truck_type</t>
   </si>
   <si>
+    <t>Gothenburg</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>unit_per_km</t>
+  </si>
+  <si>
+    <t>0-70</t>
+  </si>
+  <si>
+    <t>Freeways Charge</t>
+  </si>
+  <si>
     <t>FWC</t>
   </si>
   <si>
@@ -127,19 +139,28 @@
     <t>pre</t>
   </si>
   <si>
-    <t>SEK</t>
-  </si>
-  <si>
     <t>PER_SHIPMENT</t>
   </si>
   <si>
-    <t>Gothenburg</t>
+    <t>PER_CONTAINER_KM</t>
   </si>
   <si>
-    <t>unit</t>
+    <t>on</t>
   </si>
   <si>
-    <t>PER_CONTAINER</t>
+    <t>Fuel Surcharge</t>
+  </si>
+  <si>
+    <t>FSC</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>71-130</t>
+  </si>
+  <si>
+    <t>side_lifter</t>
   </si>
   <si>
     <t>container</t>
@@ -154,34 +175,16 @@
     <t>export</t>
   </si>
   <si>
-    <t>side_lifter</t>
+    <t>unit</t>
   </si>
   <si>
-    <t>km_in_range</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>Fuel Surcharge</t>
-  </si>
-  <si>
-    <t>FSC</t>
+    <t>km</t>
   </si>
   <si>
     <t>MIN</t>
   </si>
   <si>
     <t>1 - 1</t>
-  </si>
-  <si>
-    <t>0-70</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>71-130</t>
   </si>
   <si>
     <t>131-160</t>
@@ -215,17 +218,17 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="Cambria"/>
+      <b/>
+      <sz val="10.0"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.0"/>
-      <name val="Arial"/>
+      <sz val="11.0"/>
+      <name val="Cambria"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -269,14 +272,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -289,42 +292,51 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -398,130 +410,130 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>1.0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>2.0</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>3.0</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>4.0</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>5.0</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -1547,302 +1559,314 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="14"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="19"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="14"/>
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="19">
         <v>0.0</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="19">
         <v>0.0</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
+      <c r="D5" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>1.0</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16">
-        <v>2195.0</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="21">
+        <v>1724.0</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>2.0</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16">
-        <v>2736.0</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="21">
+        <v>2002.0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>3.0</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16">
-        <v>3065.0</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="21">
+        <v>2223.0</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
     </row>
     <row r="9">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>4.0</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16">
-        <v>3400.0</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="21">
+        <v>2552.0</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
     </row>
     <row r="10">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>5.0</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="18">
-        <v>3800.0</v>
-      </c>
-      <c r="D10" s="14">
-        <v>97.0</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
+      <c r="B10" s="20">
+        <v>2552.0</v>
+      </c>
+      <c r="C10" s="20">
+        <v>350.0</v>
+      </c>
+      <c r="D10" s="20">
+        <v>9.7</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -2850,328 +2874,328 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8">
+      <c r="G2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="6">
         <v>40.0</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="6"/>
+      <c r="A3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="7"/>
       <c r="C3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8">
+      <c r="G3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
         <v>40.0</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="A4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="8">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="6">
         <v>0.19</v>
       </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>35</v>
+      <c r="A5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="8">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="6">
         <v>0.19</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="8">
+      <c r="G6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="6">
         <v>40.0</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="6"/>
+      <c r="A7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="8">
+      <c r="G7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="6">
         <v>40.0</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>35</v>
+      <c r="A8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="8">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="6">
         <v>0.19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="A9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>35</v>
+      <c r="E9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="8">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="6">
         <v>0.19</v>
       </c>
     </row>
@@ -4185,286 +4209,298 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="13">
         <v>1.0</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="19">
         <v>0.0</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="19">
         <v>0.0</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
+      <c r="D5" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>1.0</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16">
-        <v>2195.0</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="21">
+        <v>1945.0</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>2.0</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16">
-        <v>2736.0</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="21">
+        <v>2336.0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
     </row>
     <row r="8">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>3.0</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16">
-        <v>3065.0</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="21">
+        <v>2665.0</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
     </row>
     <row r="9">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>4.0</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16">
-        <v>3400.0</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="21">
+        <v>3000.0</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
     </row>
     <row r="10">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>5.0</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="18">
-        <v>3800.0</v>
-      </c>
-      <c r="D10" s="14">
-        <v>123.0</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+      <c r="B10" s="20">
+        <v>3000.0</v>
+      </c>
+      <c r="C10" s="20">
+        <v>350.0</v>
+      </c>
+      <c r="D10" s="20">
+        <v>12.3</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -5476,286 +5512,314 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="13">
         <v>1.0</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="19"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="19">
         <v>0.0</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="19">
         <v>0.0</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
+      <c r="D5" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>1.0</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16">
-        <v>2195.0</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="21">
+        <v>1945.0</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>2.0</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16">
-        <v>2736.0</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="21">
+        <v>2336.0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>3.0</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16">
-        <v>3065.0</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="21">
+        <v>2665.0</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
     </row>
     <row r="9">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>4.0</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16">
-        <v>3400.0</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="21">
+        <v>3000.0</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
     </row>
     <row r="10">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>5.0</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="18">
-        <v>3800.0</v>
-      </c>
-      <c r="D10" s="14">
-        <v>123.0</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+      <c r="B10" s="20">
+        <v>3000.0</v>
+      </c>
+      <c r="C10" s="20">
+        <v>350.0</v>
+      </c>
+      <c r="D10" s="20">
+        <v>12.3</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -6767,302 +6831,314 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="13">
         <v>1.0</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="14"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="19"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="14"/>
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="19">
         <v>0.0</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="19">
         <v>0.0</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
+      <c r="D5" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>1.0</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16">
-        <v>1974.0</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="21">
+        <v>1945.0</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>2.0</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16">
-        <v>2402.0</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="21">
+        <v>2336.0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>3.0</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16">
-        <v>2623.0</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="21">
+        <v>2665.0</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
     </row>
     <row r="9">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>4.0</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16">
-        <v>2952.0</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="21">
+        <v>3000.0</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
     </row>
     <row r="10">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>5.0</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="18">
-        <v>3352.0</v>
-      </c>
-      <c r="D10" s="14">
-        <v>97.0</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
+      <c r="B10" s="20">
+        <v>3000.0</v>
+      </c>
+      <c r="C10" s="20">
+        <v>350.0</v>
+      </c>
+      <c r="D10" s="20">
+        <v>12.3</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -8074,302 +8150,298 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="13">
         <v>1.0</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="14"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="14"/>
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="19">
         <v>0.0</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="19">
         <v>0.0</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
+      <c r="D5" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>1.0</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16">
-        <v>1974.0</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="21">
+        <v>1945.0</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>2.0</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16">
-        <v>2402.0</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="21">
+        <v>2336.0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
     </row>
     <row r="8">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>3.0</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16">
-        <v>2623.0</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="21">
+        <v>2665.0</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
     </row>
     <row r="9">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>4.0</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16">
-        <v>2952.0</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="21">
+        <v>3000.0</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
     </row>
     <row r="10">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>5.0</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="18">
-        <v>3352.0</v>
-      </c>
-      <c r="D10" s="14">
-        <v>97.0</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
+      <c r="B10" s="20">
+        <v>3000.0</v>
+      </c>
+      <c r="C10" s="20">
+        <v>350.0</v>
+      </c>
+      <c r="D10" s="20">
+        <v>12.3</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -9371,7 +9443,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="18.29"/>
     <col customWidth="1" min="2" max="3" width="12.43"/>
-    <col customWidth="1" min="4" max="4" width="12.29"/>
+    <col customWidth="1" min="4" max="4" width="16.71"/>
     <col customWidth="1" min="5" max="8" width="10.86"/>
     <col customWidth="1" min="9" max="9" width="14.57"/>
     <col customWidth="1" min="10" max="11" width="9.43"/>
@@ -9381,302 +9453,314 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="14"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="19"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="14"/>
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="19">
         <v>0.0</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="19">
         <v>0.0</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
+      <c r="D5" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>1.0</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16">
-        <v>1974.0</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="21">
+        <v>1724.0</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>2.0</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16">
-        <v>2402.0</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="21">
+        <v>2002.0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>3.0</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16">
-        <v>2623.0</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="21">
+        <v>2223.0</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
     </row>
     <row r="9">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>4.0</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16">
-        <v>2952.0</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="21">
+        <v>2552.0</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
     </row>
     <row r="10">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>5.0</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="18">
-        <v>3352.0</v>
-      </c>
-      <c r="D10" s="14">
-        <v>97.0</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
+      <c r="B10" s="20">
+        <v>2552.0</v>
+      </c>
+      <c r="C10" s="20">
+        <v>350.0</v>
+      </c>
+      <c r="D10" s="20">
+        <v>9.7</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -10688,302 +10772,314 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="14"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="19"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="14"/>
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="19">
         <v>0.0</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="19">
         <v>0.0</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
+      <c r="D5" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>1.0</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16">
-        <v>1974.0</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="21">
+        <v>1724.0</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>2.0</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16">
-        <v>2402.0</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="21">
+        <v>2002.0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>3.0</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16">
-        <v>2623.0</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="21">
+        <v>2223.0</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
     </row>
     <row r="9">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>4.0</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16">
-        <v>2952.0</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="21">
+        <v>2552.0</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
     </row>
     <row r="10">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>5.0</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="18">
-        <v>3352.0</v>
-      </c>
-      <c r="D10" s="14">
-        <v>97.0</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
+      <c r="B10" s="20">
+        <v>2552.0</v>
+      </c>
+      <c r="C10" s="20">
+        <v>350.0</v>
+      </c>
+      <c r="D10" s="20">
+        <v>9.7</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -11995,302 +12091,314 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="14"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="19"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="14"/>
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="19">
         <v>0.0</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="19">
         <v>0.0</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
+      <c r="D5" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>1.0</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16">
-        <v>2195.0</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="21">
+        <v>1724.0</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>2.0</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16">
-        <v>2736.0</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="21">
+        <v>2002.0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>3.0</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16">
-        <v>3065.0</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="21">
+        <v>2223.0</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
     </row>
     <row r="9">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>4.0</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16">
-        <v>3400.0</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="21">
+        <v>2552.0</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
     </row>
     <row r="10">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>5.0</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="18">
-        <v>3800.0</v>
-      </c>
-      <c r="D10" s="14">
-        <v>97.0</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
+      <c r="B10" s="20">
+        <v>2552.0</v>
+      </c>
+      <c r="C10" s="20">
+        <v>350.0</v>
+      </c>
+      <c r="D10" s="20">
+        <v>9.7</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>

--- a/db/dummydata/new_gc_trucking_gothenburg_port_ftl.xlsx
+++ b/db/dummydata/new_gc_trucking_gothenburg_port_ftl.xlsx
@@ -22,19 +22,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="60">
   <si>
-    <t>City</t>
-  </si>
-  <si>
     <t>ZONE</t>
   </si>
   <si>
     <t>FEE</t>
   </si>
   <si>
-    <t>Currency</t>
+    <t>City</t>
   </si>
   <si>
-    <t>Scale</t>
+    <t>DISTANCE</t>
+  </si>
+  <si>
+    <t>RANGE</t>
+  </si>
+  <si>
+    <t>COUNTRY_CODE</t>
   </si>
   <si>
     <t>MOT</t>
@@ -64,22 +67,13 @@
     <t>KG</t>
   </si>
   <si>
-    <t>DISTANCE</t>
-  </si>
-  <si>
     <t>ITEM</t>
-  </si>
-  <si>
-    <t>RANGE</t>
   </si>
   <si>
     <t>SHIPMENT</t>
   </si>
   <si>
     <t>BILL</t>
-  </si>
-  <si>
-    <t>COUNTRY_CODE</t>
   </si>
   <si>
     <t>CONTAINER</t>
@@ -94,7 +88,61 @@
     <t>PERCENTAGE</t>
   </si>
   <si>
+    <t>Freeways Charge</t>
+  </si>
+  <si>
+    <t>FWC</t>
+  </si>
+  <si>
+    <t>chassis</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>PER_SHIPMENT</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>0-70</t>
+  </si>
+  <si>
+    <t>Fuel Surcharge</t>
+  </si>
+  <si>
+    <t>FSC</t>
+  </si>
+  <si>
     <t>rate_basis</t>
+  </si>
+  <si>
+    <t>side_lifter</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>71-130</t>
+  </si>
+  <si>
+    <t>131-160</t>
+  </si>
+  <si>
+    <t>161-200</t>
+  </si>
+  <si>
+    <t>201-3000</t>
   </si>
   <si>
     <t>Base</t>
@@ -118,49 +166,10 @@
     <t>Gothenburg</t>
   </si>
   <si>
-    <t>SEK</t>
-  </si>
-  <si>
     <t>unit_per_km</t>
   </si>
   <si>
-    <t>0-70</t>
-  </si>
-  <si>
-    <t>Freeways Charge</t>
-  </si>
-  <si>
-    <t>FWC</t>
-  </si>
-  <si>
-    <t>chassis</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>PER_SHIPMENT</t>
-  </si>
-  <si>
     <t>PER_CONTAINER_KM</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>Fuel Surcharge</t>
-  </si>
-  <si>
-    <t>FSC</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>71-130</t>
-  </si>
-  <si>
-    <t>side_lifter</t>
   </si>
   <si>
     <t>container</t>
@@ -172,7 +181,7 @@
     <t>fcl_20</t>
   </si>
   <si>
-    <t>export</t>
+    <t>import</t>
   </si>
   <si>
     <t>unit</t>
@@ -187,19 +196,10 @@
     <t>1 - 1</t>
   </si>
   <si>
-    <t>131-160</t>
-  </si>
-  <si>
-    <t>161-200</t>
-  </si>
-  <si>
-    <t>201-3000</t>
-  </si>
-  <si>
     <t>fcl_40</t>
   </si>
   <si>
-    <t>import</t>
+    <t>export</t>
   </si>
 </sst>
 </file>
@@ -224,11 +224,11 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <name val="Arial"/>
+      <name val="Cambria"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <name val="Cambria"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -272,27 +272,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -300,40 +288,55 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -410,130 +413,130 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="N1" s="4"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1.0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2.0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3.0</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4.0</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5.0</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -1559,314 +1562,314 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="D1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="15">
         <v>1.0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="I2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="19"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="19"/>
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="20"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="19">
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="20">
         <v>0.0</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="20">
         <v>0.0</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="21">
         <v>0.0</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1.0</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="21">
+      <c r="B6" s="20"/>
+      <c r="C6" s="22">
         <v>1724.0</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="21">
         <v>0.0</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>2.0</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="21">
+      <c r="B7" s="20"/>
+      <c r="C7" s="22">
         <v>2002.0</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="21">
         <v>0.0</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>3.0</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="21">
+      <c r="B8" s="20"/>
+      <c r="C8" s="22">
         <v>2223.0</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="21">
         <v>0.0</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>4.0</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="21">
+      <c r="B9" s="20"/>
+      <c r="C9" s="22">
         <v>2552.0</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="21">
         <v>0.0</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>5.0</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="21">
         <v>2552.0</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="21">
         <v>350.0</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="21">
         <v>9.7</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -2874,328 +2877,328 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="6">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5">
         <v>40.0</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5">
         <v>40.0</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="6">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="5">
         <v>0.19</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="6">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5">
         <v>0.19</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="6">
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5">
         <v>40.0</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="6">
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5">
         <v>40.0</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="6">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5">
         <v>0.19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="6">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5">
         <v>0.19</v>
       </c>
     </row>
@@ -4209,298 +4212,298 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="D1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="15">
         <v>1.0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="G2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="19">
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="20">
         <v>0.0</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="20">
         <v>0.0</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="21">
         <v>0.0</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1.0</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="21">
+      <c r="B6" s="20"/>
+      <c r="C6" s="22">
         <v>1945.0</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="21">
         <v>0.0</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>2.0</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="21">
+      <c r="B7" s="20"/>
+      <c r="C7" s="22">
         <v>2336.0</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="21">
         <v>0.0</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>3.0</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="21">
+      <c r="B8" s="20"/>
+      <c r="C8" s="22">
         <v>2665.0</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="21">
         <v>0.0</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>4.0</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="21">
+      <c r="B9" s="20"/>
+      <c r="C9" s="22">
         <v>3000.0</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="21">
         <v>0.0</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>5.0</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="21">
         <v>3000.0</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="21">
         <v>350.0</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="21">
         <v>12.3</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -5512,314 +5515,314 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="D1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="15">
         <v>1.0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="G2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="19"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="19"/>
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="20"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="19">
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="20">
         <v>0.0</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="20">
         <v>0.0</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="21">
         <v>0.0</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1.0</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="21">
+      <c r="B6" s="20"/>
+      <c r="C6" s="22">
         <v>1945.0</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="21">
         <v>0.0</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>2.0</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="21">
+      <c r="B7" s="20"/>
+      <c r="C7" s="22">
         <v>2336.0</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="21">
         <v>0.0</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>3.0</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="21">
+      <c r="B8" s="20"/>
+      <c r="C8" s="22">
         <v>2665.0</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="21">
         <v>0.0</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>4.0</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="21">
+      <c r="B9" s="20"/>
+      <c r="C9" s="22">
         <v>3000.0</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="21">
         <v>0.0</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>5.0</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="21">
         <v>3000.0</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="21">
         <v>350.0</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="21">
         <v>12.3</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -6831,314 +6834,314 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="D1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="15">
         <v>1.0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="I2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="19"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="19"/>
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="20"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="19">
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="20">
         <v>0.0</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="20">
         <v>0.0</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="21">
         <v>0.0</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1.0</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="21">
+      <c r="B6" s="20"/>
+      <c r="C6" s="22">
         <v>1945.0</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="21">
         <v>0.0</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>2.0</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="21">
+      <c r="B7" s="20"/>
+      <c r="C7" s="22">
         <v>2336.0</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="21">
         <v>0.0</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>3.0</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="21">
+      <c r="B8" s="20"/>
+      <c r="C8" s="22">
         <v>2665.0</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="21">
         <v>0.0</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>4.0</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="21">
+      <c r="B9" s="20"/>
+      <c r="C9" s="22">
         <v>3000.0</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="21">
         <v>0.0</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>5.0</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="21">
         <v>3000.0</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="21">
         <v>350.0</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="21">
         <v>12.3</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -8150,298 +8153,298 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="D1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="15">
         <v>1.0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="I2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="19">
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="20">
         <v>0.0</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="20">
         <v>0.0</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="21">
         <v>0.0</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1.0</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="21">
+      <c r="B6" s="20"/>
+      <c r="C6" s="22">
         <v>1945.0</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="21">
         <v>0.0</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>2.0</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="21">
+      <c r="B7" s="20"/>
+      <c r="C7" s="22">
         <v>2336.0</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="21">
         <v>0.0</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>3.0</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="21">
+      <c r="B8" s="20"/>
+      <c r="C8" s="22">
         <v>2665.0</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="21">
         <v>0.0</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>4.0</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="21">
+      <c r="B9" s="20"/>
+      <c r="C9" s="22">
         <v>3000.0</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="21">
         <v>0.0</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>5.0</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="21">
         <v>3000.0</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="21">
         <v>350.0</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="21">
         <v>12.3</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -9453,314 +9456,314 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="D1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="15">
         <v>1.0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="F2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="19"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="19"/>
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="20"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="19">
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="20">
         <v>0.0</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="20">
         <v>0.0</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="21">
         <v>0.0</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1.0</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="21">
+      <c r="B6" s="20"/>
+      <c r="C6" s="22">
         <v>1724.0</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="21">
         <v>0.0</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>2.0</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="21">
+      <c r="B7" s="20"/>
+      <c r="C7" s="22">
         <v>2002.0</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="21">
         <v>0.0</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>3.0</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="21">
+      <c r="B8" s="20"/>
+      <c r="C8" s="22">
         <v>2223.0</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="21">
         <v>0.0</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>4.0</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="21">
+      <c r="B9" s="20"/>
+      <c r="C9" s="22">
         <v>2552.0</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="21">
         <v>0.0</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>5.0</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="21">
         <v>2552.0</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="21">
         <v>350.0</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="21">
         <v>9.7</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -10772,314 +10775,314 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="D1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="15">
         <v>1.0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="I2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="19"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="19"/>
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="20"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="19">
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="20">
         <v>0.0</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="20">
         <v>0.0</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="21">
         <v>0.0</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1.0</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="21">
+      <c r="B6" s="20"/>
+      <c r="C6" s="22">
         <v>1724.0</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="21">
         <v>0.0</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>2.0</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="21">
+      <c r="B7" s="20"/>
+      <c r="C7" s="22">
         <v>2002.0</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="21">
         <v>0.0</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>3.0</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="21">
+      <c r="B8" s="20"/>
+      <c r="C8" s="22">
         <v>2223.0</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="21">
         <v>0.0</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>4.0</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="21">
+      <c r="B9" s="20"/>
+      <c r="C9" s="22">
         <v>2552.0</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="21">
         <v>0.0</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>5.0</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="21">
         <v>2552.0</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="21">
         <v>350.0</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="21">
         <v>9.7</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -12091,314 +12094,314 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="D1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="15">
         <v>1.0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="G2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="19"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="19"/>
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="20"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="19">
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="20">
         <v>0.0</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="20">
         <v>0.0</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="21">
         <v>0.0</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1.0</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="21">
+      <c r="B6" s="20"/>
+      <c r="C6" s="22">
         <v>1724.0</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="21">
         <v>0.0</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>2.0</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="21">
+      <c r="B7" s="20"/>
+      <c r="C7" s="22">
         <v>2002.0</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="21">
         <v>0.0</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>3.0</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="21">
+      <c r="B8" s="20"/>
+      <c r="C8" s="22">
         <v>2223.0</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="21">
         <v>0.0</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>4.0</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="21">
+      <c r="B9" s="20"/>
+      <c r="C9" s="22">
         <v>2552.0</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="21">
         <v>0.0</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>5.0</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="21">
         <v>2552.0</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="21">
         <v>350.0</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="21">
         <v>9.7</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>

--- a/db/dummydata/new_gc_trucking_gothenburg_port_ftl.xlsx
+++ b/db/dummydata/new_gc_trucking_gothenburg_port_ftl.xlsx
@@ -25,19 +25,37 @@
     <t>ZONE</t>
   </si>
   <si>
-    <t>FEE</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>DISTANCE</t>
+    <t>DISTANCE_RETURN</t>
   </si>
   <si>
     <t>RANGE</t>
   </si>
   <si>
     <t>COUNTRY_CODE</t>
+  </si>
+  <si>
+    <t>0-70</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>71-130</t>
+  </si>
+  <si>
+    <t>131-160</t>
+  </si>
+  <si>
+    <t>161-200</t>
+  </si>
+  <si>
+    <t>201-3000</t>
+  </si>
+  <si>
+    <t>FEE</t>
+  </si>
+  <si>
+    <t>City</t>
   </si>
   <si>
     <t>MOT</t>
@@ -112,37 +130,7 @@
     <t>Scale</t>
   </si>
   <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>0-70</t>
-  </si>
-  <si>
-    <t>Fuel Surcharge</t>
-  </si>
-  <si>
-    <t>FSC</t>
-  </si>
-  <si>
     <t>rate_basis</t>
-  </si>
-  <si>
-    <t>side_lifter</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>71-130</t>
-  </si>
-  <si>
-    <t>131-160</t>
-  </si>
-  <si>
-    <t>161-200</t>
-  </si>
-  <si>
-    <t>201-3000</t>
   </si>
   <si>
     <t>Base</t>
@@ -169,7 +157,16 @@
     <t>unit_per_km</t>
   </si>
   <si>
+    <t>on</t>
+  </si>
+  <si>
     <t>PER_CONTAINER_KM</t>
+  </si>
+  <si>
+    <t>Fuel Surcharge</t>
+  </si>
+  <si>
+    <t>FSC</t>
   </si>
   <si>
     <t>container</t>
@@ -184,6 +181,9 @@
     <t>import</t>
   </si>
   <si>
+    <t>side_lifter</t>
+  </si>
+  <si>
     <t>unit</t>
   </si>
   <si>
@@ -196,10 +196,10 @@
     <t>1 - 1</t>
   </si>
   <si>
-    <t>fcl_40</t>
+    <t>export</t>
   </si>
   <si>
-    <t>export</t>
+    <t>fcl_40</t>
   </si>
 </sst>
 </file>
@@ -224,20 +224,20 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <name val="Cambria"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Cambria"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -272,15 +272,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -288,34 +294,28 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -324,22 +324,25 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -400,7 +403,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="13.86"/>
+    <col customWidth="1" min="1" max="1" width="13.86"/>
+    <col customWidth="1" min="2" max="2" width="21.71"/>
     <col customWidth="1" min="3" max="3" width="18.86"/>
     <col customWidth="1" min="4" max="4" width="23.0"/>
     <col customWidth="1" min="5" max="5" width="19.29"/>
@@ -416,127 +420,127 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="N1" s="2"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1.0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>36</v>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="11"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3.0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4.0</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5.0</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -1562,77 +1566,77 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="15">
         <v>1.0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>24</v>
+      <c r="J2" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1646,33 +1650,33 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="20"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="21"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1684,192 +1688,192 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="21"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="21">
         <v>0.0</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="21">
         <v>0.0</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="22">
         <v>0.0</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1.0</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="22">
+      <c r="B6" s="21"/>
+      <c r="C6" s="23">
         <v>1724.0</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="22">
         <v>0.0</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2.0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="22">
+      <c r="B7" s="21"/>
+      <c r="C7" s="23">
         <v>2002.0</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <v>0.0</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>3.0</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="22">
+      <c r="B8" s="21"/>
+      <c r="C8" s="23">
         <v>2223.0</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="22">
         <v>0.0</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>4.0</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="22">
+      <c r="B9" s="21"/>
+      <c r="C9" s="23">
         <v>2552.0</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <v>0.0</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>5.0</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="22">
         <v>2552.0</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="22">
         <v>350.0</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="22">
         <v>9.7</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -2878,327 +2882,327 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4">
         <v>40.0</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5">
+      <c r="E3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4">
         <v>40.0</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="5">
+      <c r="G4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="4">
         <v>0.19</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5">
+      <c r="G5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="4">
         <v>0.19</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="4">
         <v>40.0</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5">
+      <c r="A7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="4">
         <v>40.0</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="5">
+      <c r="G8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="4">
         <v>0.19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="5">
+      <c r="G9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="4">
         <v>0.19</v>
       </c>
     </row>
@@ -4212,77 +4216,77 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="15">
         <v>1.0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="J2" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -4296,31 +4300,31 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4331,179 +4335,179 @@
       </c>
       <c r="D4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="21">
         <v>0.0</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="21">
         <v>0.0</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="22">
         <v>0.0</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1.0</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="22">
+      <c r="B6" s="21"/>
+      <c r="C6" s="23">
         <v>1945.0</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="22">
         <v>0.0</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2.0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="22">
+      <c r="B7" s="21"/>
+      <c r="C7" s="23">
         <v>2336.0</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <v>0.0</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>3.0</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="22">
+      <c r="B8" s="21"/>
+      <c r="C8" s="23">
         <v>2665.0</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="22">
         <v>0.0</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>4.0</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="22">
+      <c r="B9" s="21"/>
+      <c r="C9" s="23">
         <v>3000.0</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <v>0.0</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>5.0</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="22">
         <v>3000.0</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="22">
         <v>350.0</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="22">
         <v>12.3</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -5515,77 +5519,77 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="15">
         <v>1.0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>35</v>
+      <c r="I2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -5599,33 +5603,33 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="20"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="21"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -5637,192 +5641,192 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="21"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="21">
         <v>0.0</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="21">
         <v>0.0</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="22">
         <v>0.0</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1.0</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="22">
+      <c r="B6" s="21"/>
+      <c r="C6" s="23">
         <v>1945.0</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="22">
         <v>0.0</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2.0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="22">
+      <c r="B7" s="21"/>
+      <c r="C7" s="23">
         <v>2336.0</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <v>0.0</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>3.0</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="22">
+      <c r="B8" s="21"/>
+      <c r="C8" s="23">
         <v>2665.0</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="22">
         <v>0.0</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>4.0</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="22">
+      <c r="B9" s="21"/>
+      <c r="C9" s="23">
         <v>3000.0</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <v>0.0</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>5.0</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="22">
         <v>3000.0</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="22">
         <v>350.0</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="22">
         <v>12.3</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -6834,77 +6838,77 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="15">
         <v>1.0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>58</v>
+      <c r="H2" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="I2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -6918,33 +6922,33 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="20"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="21"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -6956,192 +6960,192 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="21"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="21">
         <v>0.0</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="21">
         <v>0.0</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="22">
         <v>0.0</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1.0</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="22">
+      <c r="B6" s="21"/>
+      <c r="C6" s="23">
         <v>1945.0</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="22">
         <v>0.0</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2.0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="22">
+      <c r="B7" s="21"/>
+      <c r="C7" s="23">
         <v>2336.0</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <v>0.0</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>3.0</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="22">
+      <c r="B8" s="21"/>
+      <c r="C8" s="23">
         <v>2665.0</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="22">
         <v>0.0</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>4.0</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="22">
+      <c r="B9" s="21"/>
+      <c r="C9" s="23">
         <v>3000.0</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <v>0.0</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>5.0</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="22">
         <v>3000.0</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="22">
         <v>350.0</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="22">
         <v>12.3</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -8153,77 +8157,77 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="15">
         <v>1.0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>35</v>
+      <c r="J2" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -8237,31 +8241,31 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -8272,179 +8276,179 @@
       </c>
       <c r="D4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="21">
         <v>0.0</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="21">
         <v>0.0</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="22">
         <v>0.0</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1.0</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="22">
+      <c r="B6" s="21"/>
+      <c r="C6" s="23">
         <v>1945.0</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="22">
         <v>0.0</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2.0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="22">
+      <c r="B7" s="21"/>
+      <c r="C7" s="23">
         <v>2336.0</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <v>0.0</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>3.0</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="22">
+      <c r="B8" s="21"/>
+      <c r="C8" s="23">
         <v>2665.0</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="22">
         <v>0.0</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>4.0</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="22">
+      <c r="B9" s="21"/>
+      <c r="C9" s="23">
         <v>3000.0</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <v>0.0</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>5.0</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="22">
         <v>3000.0</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="22">
         <v>350.0</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="22">
         <v>12.3</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -9456,77 +9460,77 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="15">
         <v>1.0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>24</v>
+      <c r="J2" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -9540,33 +9544,33 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="20"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="21"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -9578,192 +9582,192 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="21"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="21">
         <v>0.0</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="21">
         <v>0.0</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="22">
         <v>0.0</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1.0</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="22">
+      <c r="B6" s="21"/>
+      <c r="C6" s="23">
         <v>1724.0</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="22">
         <v>0.0</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2.0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="22">
+      <c r="B7" s="21"/>
+      <c r="C7" s="23">
         <v>2002.0</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <v>0.0</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>3.0</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="22">
+      <c r="B8" s="21"/>
+      <c r="C8" s="23">
         <v>2223.0</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="22">
         <v>0.0</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>4.0</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="22">
+      <c r="B9" s="21"/>
+      <c r="C9" s="23">
         <v>2552.0</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <v>0.0</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>5.0</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="22">
         <v>2552.0</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="22">
         <v>350.0</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="22">
         <v>9.7</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -10775,77 +10779,77 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="15">
         <v>1.0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>24</v>
+      <c r="H2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -10859,33 +10863,33 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="20"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="21"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -10897,192 +10901,192 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="21"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="21">
         <v>0.0</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="21">
         <v>0.0</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="22">
         <v>0.0</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1.0</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="22">
+      <c r="B6" s="21"/>
+      <c r="C6" s="23">
         <v>1724.0</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="22">
         <v>0.0</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2.0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="22">
+      <c r="B7" s="21"/>
+      <c r="C7" s="23">
         <v>2002.0</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <v>0.0</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>3.0</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="22">
+      <c r="B8" s="21"/>
+      <c r="C8" s="23">
         <v>2223.0</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="22">
         <v>0.0</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>4.0</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="22">
+      <c r="B9" s="21"/>
+      <c r="C9" s="23">
         <v>2552.0</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <v>0.0</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>5.0</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="22">
         <v>2552.0</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="22">
         <v>350.0</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="22">
         <v>9.7</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -12094,77 +12098,77 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="15">
         <v>1.0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>24</v>
+      <c r="I2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -12178,33 +12182,33 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="20"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="21"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -12216,192 +12220,192 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="21"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="21">
         <v>0.0</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="21">
         <v>0.0</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="22">
         <v>0.0</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1.0</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="22">
+      <c r="B6" s="21"/>
+      <c r="C6" s="23">
         <v>1724.0</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="22">
         <v>0.0</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2.0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="22">
+      <c r="B7" s="21"/>
+      <c r="C7" s="23">
         <v>2002.0</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <v>0.0</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>3.0</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="22">
+      <c r="B8" s="21"/>
+      <c r="C8" s="23">
         <v>2223.0</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="22">
         <v>0.0</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>4.0</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="22">
+      <c r="B9" s="21"/>
+      <c r="C9" s="23">
         <v>2552.0</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <v>0.0</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>5.0</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="22">
         <v>2552.0</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="22">
         <v>350.0</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="22">
         <v>9.7</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>

--- a/db/dummydata/new_gc_trucking_gothenburg_port_ftl.xlsx
+++ b/db/dummydata/new_gc_trucking_gothenburg_port_ftl.xlsx
@@ -6,13 +6,17 @@
     <sheet state="visible" name="Zones" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="Fees" sheetId="2" r:id="rId4"/>
     <sheet state="visible" name="1" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="4" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="8" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="5" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="2" sheetId="7" r:id="rId9"/>
+    <sheet state="visible" name="2" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="3" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="4" sheetId="6" r:id="rId8"/>
+    <sheet state="visible" name="5" sheetId="7" r:id="rId9"/>
     <sheet state="visible" name="6" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="3" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="7" sheetId="10" r:id="rId12"/>
+    <sheet state="visible" name="7" sheetId="9" r:id="rId11"/>
+    <sheet state="visible" name="8" sheetId="10" r:id="rId12"/>
+    <sheet state="visible" name="9" sheetId="11" r:id="rId13"/>
+    <sheet state="visible" name="10" sheetId="12" r:id="rId14"/>
+    <sheet state="visible" name="11" sheetId="13" r:id="rId15"/>
+    <sheet state="visible" name="12" sheetId="14" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -20,42 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="61">
+  <si>
+    <t>City</t>
+  </si>
   <si>
     <t>ZONE</t>
-  </si>
-  <si>
-    <t>DISTANCE_RETURN</t>
-  </si>
-  <si>
-    <t>RANGE</t>
-  </si>
-  <si>
-    <t>COUNTRY_CODE</t>
-  </si>
-  <si>
-    <t>0-70</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>71-130</t>
-  </si>
-  <si>
-    <t>131-160</t>
-  </si>
-  <si>
-    <t>161-200</t>
-  </si>
-  <si>
-    <t>201-3000</t>
   </si>
   <si>
     <t>FEE</t>
   </si>
   <si>
-    <t>City</t>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Scale</t>
   </si>
   <si>
     <t>MOT</t>
@@ -106,31 +89,10 @@
     <t>PERCENTAGE</t>
   </si>
   <si>
-    <t>Freeways Charge</t>
+    <t>rate_basis</t>
   </si>
   <si>
-    <t>FWC</t>
-  </si>
-  <si>
-    <t>chassis</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>SEK</t>
-  </si>
-  <si>
-    <t>PER_SHIPMENT</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>rate_basis</t>
+    <t>Freeways Charge</t>
   </si>
   <si>
     <t>Base</t>
@@ -151,22 +113,43 @@
     <t>truck_type</t>
   </si>
   <si>
+    <t>FWC</t>
+  </si>
+  <si>
+    <t>chassis</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>PER_SHIPMENT</t>
+  </si>
+  <si>
     <t>Gothenburg</t>
   </si>
   <si>
     <t>unit_per_km</t>
   </si>
   <si>
-    <t>on</t>
+    <t>PER_CONTAINER_KM</t>
   </si>
   <si>
-    <t>PER_CONTAINER_KM</t>
+    <t>on</t>
   </si>
   <si>
     <t>Fuel Surcharge</t>
   </si>
   <si>
     <t>FSC</t>
+  </si>
+  <si>
+    <t>DISTANCE_RETURN</t>
+  </si>
+  <si>
+    <t>side_lifter</t>
   </si>
   <si>
     <t>container</t>
@@ -181,13 +164,19 @@
     <t>import</t>
   </si>
   <si>
-    <t>side_lifter</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
     <t>km</t>
+  </si>
+  <si>
+    <t>RANGE</t>
+  </si>
+  <si>
+    <t>COUNTRY_CODE</t>
+  </si>
+  <si>
+    <t>0-70</t>
   </si>
   <si>
     <t>MIN</t>
@@ -196,10 +185,28 @@
     <t>1 - 1</t>
   </si>
   <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>71-130</t>
+  </si>
+  <si>
+    <t>131-160</t>
+  </si>
+  <si>
+    <t>161-200</t>
+  </si>
+  <si>
+    <t>201-3000</t>
+  </si>
+  <si>
     <t>export</t>
   </si>
   <si>
     <t>fcl_40</t>
+  </si>
+  <si>
+    <t>fcl_40_hq</t>
   </si>
 </sst>
 </file>
@@ -218,26 +225,26 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="10.0"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -276,17 +283,20 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -294,29 +304,20 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -324,8 +325,8 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -333,7 +334,13 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -342,7 +349,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -358,6 +365,22 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -417,130 +440,130 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="N1" s="3"/>
+      <c r="B1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>1.0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="8">
         <v>2.0</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="8">
         <v>3.0</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="8">
         <v>4.0</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="8">
         <v>5.0</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -1566,146 +1589,146 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="I2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
       <c r="T3" s="21"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
       <c r="T4" s="21"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>56</v>
+      <c r="A5" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="21">
         <v>0.0</v>
@@ -1734,12 +1757,12 @@
       <c r="T5" s="21"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="8">
         <v>1.0</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="23">
-        <v>1724.0</v>
+        <v>1945.0</v>
       </c>
       <c r="D6" s="22">
         <v>0.0</v>
@@ -1762,12 +1785,12 @@
       <c r="T6" s="21"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="8">
         <v>2.0</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="23">
-        <v>2002.0</v>
+        <v>2336.0</v>
       </c>
       <c r="D7" s="22">
         <v>0.0</v>
@@ -1790,12 +1813,12 @@
       <c r="T7" s="21"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="8">
         <v>3.0</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="23">
-        <v>2223.0</v>
+        <v>2665.0</v>
       </c>
       <c r="D8" s="22">
         <v>0.0</v>
@@ -1818,12 +1841,12 @@
       <c r="T8" s="21"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="8">
         <v>4.0</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="23">
-        <v>2552.0</v>
+        <v>3000.0</v>
       </c>
       <c r="D9" s="22">
         <v>0.0</v>
@@ -1846,7 +1869,2629 @@
       <c r="T9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="B10" s="22">
+        <v>3000.0</v>
+      </c>
+      <c r="C10" s="22">
+        <v>350.0</v>
+      </c>
+      <c r="D10" s="22">
+        <v>12.3</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="18.29"/>
+    <col customWidth="1" min="2" max="3" width="12.43"/>
+    <col customWidth="1" min="4" max="4" width="12.29"/>
+    <col customWidth="1" min="5" max="8" width="10.86"/>
+    <col customWidth="1" min="9" max="9" width="14.57"/>
+    <col customWidth="1" min="10" max="11" width="9.43"/>
+    <col customWidth="1" min="12" max="15" width="15.86"/>
+    <col customWidth="1" min="16" max="20" width="8.43"/>
+    <col customWidth="1" min="21" max="26" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="23">
+        <v>1945.0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="23">
+        <v>2336.0</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="23">
+        <v>2665.0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="23">
+        <v>3000.0</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="B10" s="22">
+        <v>3000.0</v>
+      </c>
+      <c r="C10" s="22">
+        <v>350.0</v>
+      </c>
+      <c r="D10" s="22">
+        <v>12.3</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="18.29"/>
+    <col customWidth="1" min="2" max="3" width="12.43"/>
+    <col customWidth="1" min="4" max="4" width="12.29"/>
+    <col customWidth="1" min="5" max="8" width="10.86"/>
+    <col customWidth="1" min="9" max="9" width="14.57"/>
+    <col customWidth="1" min="10" max="11" width="9.43"/>
+    <col customWidth="1" min="12" max="15" width="15.86"/>
+    <col customWidth="1" min="16" max="20" width="8.43"/>
+    <col customWidth="1" min="21" max="26" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="21"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="21"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="23">
+        <v>1724.0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="23">
+        <v>2002.0</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="23">
+        <v>2223.0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="23">
+        <v>2552.0</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8">
         <v>5.0</v>
       </c>
       <c r="B10" s="22">
@@ -1857,6 +4502,2644 @@
       </c>
       <c r="D10" s="22">
         <v>9.7</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="18.29"/>
+    <col customWidth="1" min="2" max="3" width="12.43"/>
+    <col customWidth="1" min="4" max="4" width="12.29"/>
+    <col customWidth="1" min="5" max="8" width="10.86"/>
+    <col customWidth="1" min="9" max="9" width="14.57"/>
+    <col customWidth="1" min="10" max="11" width="9.43"/>
+    <col customWidth="1" min="12" max="15" width="15.86"/>
+    <col customWidth="1" min="16" max="20" width="8.43"/>
+    <col customWidth="1" min="21" max="26" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="21"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="21"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="23">
+        <v>1724.0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="23">
+        <v>2002.0</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="23">
+        <v>2223.0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="23">
+        <v>2552.0</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="B10" s="22">
+        <v>2552.0</v>
+      </c>
+      <c r="C10" s="22">
+        <v>350.0</v>
+      </c>
+      <c r="D10" s="22">
+        <v>9.7</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="18.29"/>
+    <col customWidth="1" min="2" max="3" width="12.43"/>
+    <col customWidth="1" min="4" max="4" width="12.29"/>
+    <col customWidth="1" min="5" max="8" width="10.86"/>
+    <col customWidth="1" min="9" max="9" width="14.57"/>
+    <col customWidth="1" min="10" max="11" width="9.43"/>
+    <col customWidth="1" min="12" max="15" width="15.86"/>
+    <col customWidth="1" min="16" max="20" width="8.43"/>
+    <col customWidth="1" min="21" max="26" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="21"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="21"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="23">
+        <v>1945.0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="23">
+        <v>2336.0</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="23">
+        <v>2665.0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="23">
+        <v>3000.0</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="B10" s="22">
+        <v>3000.0</v>
+      </c>
+      <c r="C10" s="22">
+        <v>350.0</v>
+      </c>
+      <c r="D10" s="22">
+        <v>12.3</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -2881,328 +8164,328 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="4">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="8">
         <v>40.0</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="4">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="8">
         <v>40.0</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="4">
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="8">
         <v>0.19</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="4">
+      <c r="G5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="8">
         <v>0.19</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="4">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="8">
         <v>40.0</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="D7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="4">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="8">
         <v>40.0</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="4">
+      <c r="G8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="8">
         <v>0.19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="4">
+      <c r="G9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="8">
         <v>0.19</v>
       </c>
     </row>
@@ -4216,142 +9499,142 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="H2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="I2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>56</v>
+      <c r="A5" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="21">
         <v>0.0</v>
@@ -4378,7 +9661,7 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="8">
         <v>1.0</v>
       </c>
       <c r="B6" s="21"/>
@@ -4404,7 +9687,7 @@
       <c r="S6" s="21"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="8">
         <v>2.0</v>
       </c>
       <c r="B7" s="21"/>
@@ -4430,7 +9713,7 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="8">
         <v>3.0</v>
       </c>
       <c r="B8" s="21"/>
@@ -4456,7 +9739,7 @@
       <c r="S8" s="21"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="8">
         <v>4.0</v>
       </c>
       <c r="B9" s="21"/>
@@ -4482,7 +9765,7 @@
       <c r="S9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="8">
         <v>5.0</v>
       </c>
       <c r="B10" s="22">
@@ -5509,7 +10792,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="18.29"/>
     <col customWidth="1" min="2" max="3" width="12.43"/>
-    <col customWidth="1" min="4" max="4" width="12.29"/>
+    <col customWidth="1" min="4" max="4" width="16.71"/>
     <col customWidth="1" min="5" max="8" width="10.86"/>
     <col customWidth="1" min="9" max="9" width="14.57"/>
     <col customWidth="1" min="10" max="11" width="9.43"/>
@@ -5519,146 +10802,146 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="H2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="I2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
       <c r="T3" s="21"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
       <c r="T4" s="21"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>56</v>
+      <c r="A5" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="21">
         <v>0.0</v>
@@ -5687,12 +10970,12 @@
       <c r="T5" s="21"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="8">
         <v>1.0</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="23">
-        <v>1945.0</v>
+        <v>1724.0</v>
       </c>
       <c r="D6" s="22">
         <v>0.0</v>
@@ -5715,12 +10998,12 @@
       <c r="T6" s="21"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="8">
         <v>2.0</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="23">
-        <v>2336.0</v>
+        <v>2002.0</v>
       </c>
       <c r="D7" s="22">
         <v>0.0</v>
@@ -5743,12 +11026,12 @@
       <c r="T7" s="21"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="8">
         <v>3.0</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="23">
-        <v>2665.0</v>
+        <v>2223.0</v>
       </c>
       <c r="D8" s="22">
         <v>0.0</v>
@@ -5771,12 +11054,12 @@
       <c r="T8" s="21"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="8">
         <v>4.0</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="23">
-        <v>3000.0</v>
+        <v>2552.0</v>
       </c>
       <c r="D9" s="22">
         <v>0.0</v>
@@ -5799,17 +11082,17 @@
       <c r="T9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="8">
         <v>5.0</v>
       </c>
       <c r="B10" s="22">
-        <v>3000.0</v>
+        <v>2552.0</v>
       </c>
       <c r="C10" s="22">
         <v>350.0</v>
       </c>
       <c r="D10" s="22">
-        <v>12.3</v>
+        <v>9.7</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -6838,146 +12121,146 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="H2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
       <c r="T3" s="21"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
       <c r="T4" s="21"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>56</v>
+      <c r="A5" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="21">
         <v>0.0</v>
@@ -7006,12 +12289,12 @@
       <c r="T5" s="21"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="8">
         <v>1.0</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="23">
-        <v>1945.0</v>
+        <v>1724.0</v>
       </c>
       <c r="D6" s="22">
         <v>0.0</v>
@@ -7034,12 +12317,12 @@
       <c r="T6" s="21"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="8">
         <v>2.0</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="23">
-        <v>2336.0</v>
+        <v>2002.0</v>
       </c>
       <c r="D7" s="22">
         <v>0.0</v>
@@ -7062,12 +12345,12 @@
       <c r="T7" s="21"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="8">
         <v>3.0</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="23">
-        <v>2665.0</v>
+        <v>2223.0</v>
       </c>
       <c r="D8" s="22">
         <v>0.0</v>
@@ -7090,12 +12373,12 @@
       <c r="T8" s="21"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="8">
         <v>4.0</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="23">
-        <v>3000.0</v>
+        <v>2552.0</v>
       </c>
       <c r="D9" s="22">
         <v>0.0</v>
@@ -7118,17 +12401,17 @@
       <c r="T9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="8">
         <v>5.0</v>
       </c>
       <c r="B10" s="22">
-        <v>3000.0</v>
+        <v>2552.0</v>
       </c>
       <c r="C10" s="22">
         <v>350.0</v>
       </c>
       <c r="D10" s="22">
-        <v>12.3</v>
+        <v>9.7</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -8157,142 +13440,146 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="H2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="J2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="21"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="21"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>56</v>
+      <c r="A5" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="21">
         <v>0.0</v>
@@ -8303,6 +13590,7 @@
       <c r="D5" s="22">
         <v>0.0</v>
       </c>
+      <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -8317,9 +13605,10 @@
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="8">
         <v>1.0</v>
       </c>
       <c r="B6" s="21"/>
@@ -8329,6 +13618,7 @@
       <c r="D6" s="22">
         <v>0.0</v>
       </c>
+      <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -8343,9 +13633,10 @@
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="8">
         <v>2.0</v>
       </c>
       <c r="B7" s="21"/>
@@ -8355,6 +13646,7 @@
       <c r="D7" s="22">
         <v>0.0</v>
       </c>
+      <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -8369,9 +13661,10 @@
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="8">
         <v>3.0</v>
       </c>
       <c r="B8" s="21"/>
@@ -8381,6 +13674,7 @@
       <c r="D8" s="22">
         <v>0.0</v>
       </c>
+      <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -8395,9 +13689,10 @@
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="8">
         <v>4.0</v>
       </c>
       <c r="B9" s="21"/>
@@ -8407,6 +13702,7 @@
       <c r="D9" s="22">
         <v>0.0</v>
       </c>
+      <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -8421,9 +13717,10 @@
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="8">
         <v>5.0</v>
       </c>
       <c r="B10" s="22">
@@ -8435,6 +13732,7 @@
       <c r="D10" s="22">
         <v>12.3</v>
       </c>
+      <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
@@ -8449,6 +13747,7 @@
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -9450,7 +14749,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="18.29"/>
     <col customWidth="1" min="2" max="3" width="12.43"/>
-    <col customWidth="1" min="4" max="4" width="16.71"/>
+    <col customWidth="1" min="4" max="4" width="12.29"/>
     <col customWidth="1" min="5" max="8" width="10.86"/>
     <col customWidth="1" min="9" max="9" width="14.57"/>
     <col customWidth="1" min="10" max="11" width="9.43"/>
@@ -9460,146 +14759,142 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="21"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="21"/>
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>56</v>
+      <c r="A5" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="21">
         <v>0.0</v>
@@ -9610,7 +14905,6 @@
       <c r="D5" s="22">
         <v>0.0</v>
       </c>
-      <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -9625,20 +14919,18 @@
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="8">
         <v>1.0</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="23">
-        <v>1724.0</v>
+        <v>1945.0</v>
       </c>
       <c r="D6" s="22">
         <v>0.0</v>
       </c>
-      <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -9653,20 +14945,18 @@
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="8">
         <v>2.0</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="23">
-        <v>2002.0</v>
+        <v>2336.0</v>
       </c>
       <c r="D7" s="22">
         <v>0.0</v>
       </c>
-      <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -9681,20 +14971,18 @@
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="8">
         <v>3.0</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="23">
-        <v>2223.0</v>
+        <v>2665.0</v>
       </c>
       <c r="D8" s="22">
         <v>0.0</v>
       </c>
-      <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -9709,20 +14997,18 @@
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="8">
         <v>4.0</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="23">
-        <v>2552.0</v>
+        <v>3000.0</v>
       </c>
       <c r="D9" s="22">
         <v>0.0</v>
       </c>
-      <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -9737,22 +15023,20 @@
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="8">
         <v>5.0</v>
       </c>
       <c r="B10" s="22">
-        <v>2552.0</v>
+        <v>3000.0</v>
       </c>
       <c r="C10" s="22">
         <v>350.0</v>
       </c>
       <c r="D10" s="22">
-        <v>9.7</v>
-      </c>
-      <c r="E10" s="21"/>
+        <v>12.3</v>
+      </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
@@ -9767,7 +15051,6 @@
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -10779,146 +16062,146 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
       <c r="T3" s="21"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
       <c r="T4" s="21"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>56</v>
+      <c r="A5" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="21">
         <v>0.0</v>
@@ -10947,7 +16230,7 @@
       <c r="T5" s="21"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="8">
         <v>1.0</v>
       </c>
       <c r="B6" s="21"/>
@@ -10975,7 +16258,7 @@
       <c r="T6" s="21"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="8">
         <v>2.0</v>
       </c>
       <c r="B7" s="21"/>
@@ -11003,7 +16286,7 @@
       <c r="T7" s="21"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="8">
         <v>3.0</v>
       </c>
       <c r="B8" s="21"/>
@@ -11031,7 +16314,7 @@
       <c r="T8" s="21"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="8">
         <v>4.0</v>
       </c>
       <c r="B9" s="21"/>
@@ -11059,7 +16342,7 @@
       <c r="T9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="8">
         <v>5.0</v>
       </c>
       <c r="B10" s="22">
@@ -12098,146 +17381,146 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
       <c r="T3" s="21"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
       <c r="T4" s="21"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>56</v>
+      <c r="A5" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="21">
         <v>0.0</v>
@@ -12266,7 +17549,7 @@
       <c r="T5" s="21"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="8">
         <v>1.0</v>
       </c>
       <c r="B6" s="21"/>
@@ -12294,7 +17577,7 @@
       <c r="T6" s="21"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="8">
         <v>2.0</v>
       </c>
       <c r="B7" s="21"/>
@@ -12322,7 +17605,7 @@
       <c r="T7" s="21"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="8">
         <v>3.0</v>
       </c>
       <c r="B8" s="21"/>
@@ -12350,7 +17633,7 @@
       <c r="T8" s="21"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="8">
         <v>4.0</v>
       </c>
       <c r="B9" s="21"/>
@@ -12378,7 +17661,7 @@
       <c r="T9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="8">
         <v>5.0</v>
       </c>
       <c r="B10" s="22">
